--- a/Panels/parameter_estimates_Omega_Abundance_season.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_season.xlsx
@@ -431,37 +431,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9701482392215837</v>
+        <v>0.9295619016277499</v>
       </c>
       <c r="D2">
-        <v>0.9700580694824044</v>
+        <v>0.9482489601929881</v>
       </c>
       <c r="E2">
-        <v>0.9666882371502655</v>
+        <v>0.9385182684575192</v>
       </c>
       <c r="F2">
-        <v>0.1243988868875219</v>
+        <v>0.1419890474392819</v>
       </c>
       <c r="G2">
-        <v>0.8597696956946577</v>
+        <v>0.7216784514693998</v>
       </c>
       <c r="H2">
-        <v>0.9648364926107535</v>
+        <v>0.8839228816467368</v>
       </c>
       <c r="I2">
-        <v>0.7293882217135551</v>
+        <v>0.5171033923524251</v>
       </c>
       <c r="J2">
-        <v>-0.4944268031265449</v>
+        <v>-0.3837685864878504</v>
       </c>
       <c r="K2">
-        <v>0.5172037006814862</v>
+        <v>0.44225587763457</v>
       </c>
       <c r="L2">
-        <v>0.6914118537225581</v>
+        <v>0.5177117130660854</v>
       </c>
       <c r="M2">
-        <v>-0.8550192748367424</v>
+        <v>-0.5555275554573516</v>
       </c>
     </row>
     <row r="3">
@@ -471,40 +471,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9701482392215837</v>
+        <v>0.9295619016277499</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9962664608434691</v>
+        <v>0.9733837981017297</v>
       </c>
       <c r="E3">
-        <v>0.9956208807084366</v>
+        <v>0.9731823697639459</v>
       </c>
       <c r="F3">
-        <v>-0.01265315818304929</v>
+        <v>-0.04625116787231336</v>
       </c>
       <c r="G3">
-        <v>0.8819358772405729</v>
+        <v>0.7706680555155564</v>
       </c>
       <c r="H3">
-        <v>0.9937031708654199</v>
+        <v>0.9396888591955141</v>
       </c>
       <c r="I3">
-        <v>0.8157055594965645</v>
+        <v>0.6707680567139025</v>
       </c>
       <c r="J3">
-        <v>-0.5108030838671405</v>
+        <v>-0.4396800556367333</v>
       </c>
       <c r="K3">
-        <v>0.5236128413598534</v>
+        <v>0.4307154144697255</v>
       </c>
       <c r="L3">
-        <v>0.7114157601855013</v>
+        <v>0.5606169495928069</v>
       </c>
       <c r="M3">
-        <v>-0.9092507800764984</v>
+        <v>-0.694589904008762</v>
       </c>
     </row>
     <row r="4">
@@ -514,40 +514,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9700580694824044</v>
+        <v>0.9482489601929881</v>
       </c>
       <c r="C4">
-        <v>0.9962664608434691</v>
+        <v>0.9733837981017297</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9994067216766692</v>
+        <v>0.9982639657209674</v>
       </c>
       <c r="F4">
-        <v>-0.03341186592122001</v>
+        <v>-0.06537514626891817</v>
       </c>
       <c r="G4">
-        <v>0.8838738705509649</v>
+        <v>0.7789955203191939</v>
       </c>
       <c r="H4">
-        <v>0.9971460863633185</v>
+        <v>0.9610028891715672</v>
       </c>
       <c r="I4">
-        <v>0.8269777116236208</v>
+        <v>0.6809988451613682</v>
       </c>
       <c r="J4">
-        <v>-0.51310712947312</v>
+        <v>-0.4411896936846352</v>
       </c>
       <c r="K4">
-        <v>0.5242459439903413</v>
+        <v>0.4336629460264267</v>
       </c>
       <c r="L4">
-        <v>0.7137490665492259</v>
+        <v>0.5609787404672795</v>
       </c>
       <c r="M4">
-        <v>-0.9178112706230164</v>
+        <v>-0.7026362162758528</v>
       </c>
     </row>
     <row r="5">
@@ -557,40 +557,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.9666882371502655</v>
+        <v>0.9385182684575192</v>
       </c>
       <c r="C5">
-        <v>0.9956208807084366</v>
+        <v>0.9731823697639459</v>
       </c>
       <c r="D5">
-        <v>0.9994067216766692</v>
+        <v>0.9982639657209674</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.05201995221972574</v>
+        <v>-0.09590987849904367</v>
       </c>
       <c r="G5">
-        <v>0.8834556189084279</v>
+        <v>0.7842335193964111</v>
       </c>
       <c r="H5">
-        <v>0.9972288078053044</v>
+        <v>0.9658998393012603</v>
       </c>
       <c r="I5">
-        <v>0.836046254871315</v>
+        <v>0.7038285279131766</v>
       </c>
       <c r="J5">
-        <v>-0.5135605685814343</v>
+        <v>-0.4485580592486172</v>
       </c>
       <c r="K5">
-        <v>0.5232928991072306</v>
+        <v>0.4314270989628922</v>
       </c>
       <c r="L5">
-        <v>0.7136831507313374</v>
+        <v>0.5654496563726229</v>
       </c>
       <c r="M5">
-        <v>-0.9223201589487433</v>
+        <v>-0.7229940564380488</v>
       </c>
     </row>
     <row r="6">
@@ -600,40 +600,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.1243988868875219</v>
+        <v>0.1419890474392819</v>
       </c>
       <c r="C6">
-        <v>-0.01265315818304929</v>
+        <v>-0.04625116787231336</v>
       </c>
       <c r="D6">
-        <v>-0.03341186592122001</v>
+        <v>-0.06537514626891817</v>
       </c>
       <c r="E6">
-        <v>-0.05201995221972574</v>
+        <v>-0.09590987849904367</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.001907381027561486</v>
+        <v>-0.1236686249051474</v>
       </c>
       <c r="H6">
-        <v>-0.04828251091569683</v>
+        <v>-0.1503299758431512</v>
       </c>
       <c r="I6">
-        <v>-0.4665869340226275</v>
+        <v>-0.6108380602377712</v>
       </c>
       <c r="J6">
-        <v>0.05160413858342359</v>
+        <v>0.1519200389874489</v>
       </c>
       <c r="K6">
-        <v>0.03271940420426432</v>
+        <v>0.0400400135334231</v>
       </c>
       <c r="L6">
-        <v>-0.03162779931655225</v>
+        <v>-0.105392949990296</v>
       </c>
       <c r="M6">
-        <v>0.2493017333990783</v>
+        <v>0.4996083074900541</v>
       </c>
     </row>
     <row r="7">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.8597696956946577</v>
+        <v>0.7216784514693998</v>
       </c>
       <c r="C7">
-        <v>0.8819358772405729</v>
+        <v>0.7706680555155564</v>
       </c>
       <c r="D7">
-        <v>0.8838738705509649</v>
+        <v>0.7789955203191939</v>
       </c>
       <c r="E7">
-        <v>0.8834556189084279</v>
+        <v>0.7842335193964111</v>
       </c>
       <c r="F7">
-        <v>0.001907381027561486</v>
+        <v>-0.1236686249051474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.8821827364503984</v>
+        <v>0.8008236476641228</v>
       </c>
       <c r="I7">
-        <v>0.7385102932342406</v>
+        <v>0.6899865315789554</v>
       </c>
       <c r="J7">
-        <v>-0.4435962124530274</v>
+        <v>-0.4302954081763858</v>
       </c>
       <c r="K7">
-        <v>0.4746013902155579</v>
+        <v>0.38738520451805</v>
       </c>
       <c r="L7">
-        <v>0.6295137510964486</v>
+        <v>0.5275504676484285</v>
       </c>
       <c r="M7">
-        <v>-0.808890784878731</v>
+        <v>-0.701548856687593</v>
       </c>
     </row>
     <row r="8">
@@ -686,40 +686,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9648364926107535</v>
+        <v>0.8839228816467368</v>
       </c>
       <c r="C8">
-        <v>0.9937031708654199</v>
+        <v>0.9396888591955141</v>
       </c>
       <c r="D8">
-        <v>0.9971460863633185</v>
+        <v>0.9610028891715672</v>
       </c>
       <c r="E8">
-        <v>0.9972288078053044</v>
+        <v>0.9658998393012603</v>
       </c>
       <c r="F8">
-        <v>-0.04828251091569683</v>
+        <v>-0.1503299758431512</v>
       </c>
       <c r="G8">
-        <v>0.8821827364503984</v>
+        <v>0.8008236476641228</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8333434713625376</v>
+        <v>0.7533213535810662</v>
       </c>
       <c r="J8">
-        <v>-0.5125659367742302</v>
+        <v>-0.4715931350465566</v>
       </c>
       <c r="K8">
-        <v>0.5221515887986774</v>
+        <v>0.4219945509310684</v>
       </c>
       <c r="L8">
-        <v>0.7124553202057865</v>
+        <v>0.5776451531364341</v>
       </c>
       <c r="M8">
-        <v>-0.9188765642913813</v>
+        <v>-0.7702137489928712</v>
       </c>
     </row>
     <row r="9">
@@ -729,40 +729,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.7293882217135551</v>
+        <v>0.5171033923524251</v>
       </c>
       <c r="C9">
-        <v>0.8157055594965645</v>
+        <v>0.6707680567139025</v>
       </c>
       <c r="D9">
-        <v>0.8269777116236208</v>
+        <v>0.6809988451613682</v>
       </c>
       <c r="E9">
-        <v>0.836046254871315</v>
+        <v>0.7038285279131766</v>
       </c>
       <c r="F9">
-        <v>-0.4665869340226275</v>
+        <v>-0.6108380602377712</v>
       </c>
       <c r="G9">
-        <v>0.7385102932342406</v>
+        <v>0.6899865315789554</v>
       </c>
       <c r="H9">
-        <v>0.8333434713625376</v>
+        <v>0.7533213535810662</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.4336821276794394</v>
+        <v>-0.4502983371885663</v>
       </c>
       <c r="K9">
-        <v>0.4196104690065921</v>
+        <v>0.3060580495200733</v>
       </c>
       <c r="L9">
-        <v>0.5941821048675445</v>
+        <v>0.5088459017989462</v>
       </c>
       <c r="M9">
-        <v>-0.8622447914464911</v>
+        <v>-0.8786643474005664</v>
       </c>
     </row>
     <row r="10">
@@ -772,40 +772,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.4944268031265449</v>
+        <v>-0.3837685864878504</v>
       </c>
       <c r="C10">
-        <v>-0.5108030838671405</v>
+        <v>-0.4396800556367333</v>
       </c>
       <c r="D10">
-        <v>-0.51310712947312</v>
+        <v>-0.4411896936846352</v>
       </c>
       <c r="E10">
-        <v>-0.5135605685814343</v>
+        <v>-0.4485580592486172</v>
       </c>
       <c r="F10">
-        <v>0.05160413858342359</v>
+        <v>0.1519200389874489</v>
       </c>
       <c r="G10">
-        <v>-0.4435962124530274</v>
+        <v>-0.4302954081763858</v>
       </c>
       <c r="H10">
-        <v>-0.5125659367742302</v>
+        <v>-0.4715931350465566</v>
       </c>
       <c r="I10">
-        <v>-0.4336821276794394</v>
+        <v>-0.4502983371885663</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>-0.2583397887018958</v>
+        <v>-0.2132441629036366</v>
       </c>
       <c r="L10">
-        <v>-0.3515191914614174</v>
+        <v>-0.3051869893673324</v>
       </c>
       <c r="M10">
-        <v>0.4779069618972591</v>
+        <v>0.4610749489464066</v>
       </c>
     </row>
     <row r="11">
@@ -815,40 +815,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.5172037006814862</v>
+        <v>0.44225587763457</v>
       </c>
       <c r="C11">
-        <v>0.5236128413598534</v>
+        <v>0.4307154144697255</v>
       </c>
       <c r="D11">
-        <v>0.5242459439903413</v>
+        <v>0.4336629460264267</v>
       </c>
       <c r="E11">
-        <v>0.5232928991072306</v>
+        <v>0.4314270989628922</v>
       </c>
       <c r="F11">
-        <v>0.03271940420426432</v>
+        <v>0.0400400135334231</v>
       </c>
       <c r="G11">
-        <v>0.4746013902155579</v>
+        <v>0.38738520451805</v>
       </c>
       <c r="H11">
-        <v>0.5221515887986774</v>
+        <v>0.4219945509310684</v>
       </c>
       <c r="I11">
-        <v>0.4196104690065921</v>
+        <v>0.3060580495200733</v>
       </c>
       <c r="J11">
-        <v>-0.2583397887018958</v>
+        <v>-0.2132441629036366</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3862851077303166</v>
+        <v>0.2941627606320112</v>
       </c>
       <c r="M11">
-        <v>-0.4740954883503271</v>
+        <v>-0.3223209840056971</v>
       </c>
     </row>
     <row r="12">
@@ -858,40 +858,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.6914118537225581</v>
+        <v>0.5177117130660854</v>
       </c>
       <c r="C12">
-        <v>0.7114157601855013</v>
+        <v>0.5606169495928069</v>
       </c>
       <c r="D12">
-        <v>0.7137490665492259</v>
+        <v>0.5609787404672795</v>
       </c>
       <c r="E12">
-        <v>0.7136831507313374</v>
+        <v>0.5654496563726229</v>
       </c>
       <c r="F12">
-        <v>-0.03162779931655225</v>
+        <v>-0.105392949990296</v>
       </c>
       <c r="G12">
-        <v>0.6295137510964486</v>
+        <v>0.5275504676484285</v>
       </c>
       <c r="H12">
-        <v>0.7124553202057865</v>
+        <v>0.5776451531364341</v>
       </c>
       <c r="I12">
-        <v>0.5941821048675445</v>
+        <v>0.5088459017989462</v>
       </c>
       <c r="J12">
-        <v>-0.3515191914614174</v>
+        <v>-0.3051869893673324</v>
       </c>
       <c r="K12">
-        <v>0.3862851077303166</v>
+        <v>0.2941627606320112</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.6537750290799483</v>
+        <v>-0.5204977194567095</v>
       </c>
     </row>
     <row r="13">
@@ -901,37 +901,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.8550192748367424</v>
+        <v>-0.5555275554573516</v>
       </c>
       <c r="C13">
-        <v>-0.9092507800764984</v>
+        <v>-0.694589904008762</v>
       </c>
       <c r="D13">
-        <v>-0.9178112706230164</v>
+        <v>-0.7026362162758528</v>
       </c>
       <c r="E13">
-        <v>-0.9223201589487433</v>
+        <v>-0.7229940564380488</v>
       </c>
       <c r="F13">
-        <v>0.2493017333990783</v>
+        <v>0.4996083074900541</v>
       </c>
       <c r="G13">
-        <v>-0.808890784878731</v>
+        <v>-0.701548856687593</v>
       </c>
       <c r="H13">
-        <v>-0.9188765642913813</v>
+        <v>-0.7702137489928712</v>
       </c>
       <c r="I13">
-        <v>-0.8622447914464911</v>
+        <v>-0.8786643474005664</v>
       </c>
       <c r="J13">
-        <v>0.4779069618972591</v>
+        <v>0.4610749489464066</v>
       </c>
       <c r="K13">
-        <v>-0.4740954883503271</v>
+        <v>-0.3223209840056971</v>
       </c>
       <c r="L13">
-        <v>-0.6537750290799483</v>
+        <v>-0.5204977194567095</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1022,37 +1022,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.99953125</v>
+        <v>0.98728125</v>
       </c>
       <c r="D2">
-        <v>0.9995937499999999</v>
+        <v>0.99796875</v>
       </c>
       <c r="E2">
-        <v>0.99953125</v>
+        <v>0.9976874999999999</v>
       </c>
       <c r="F2">
-        <v>0.665125</v>
+        <v>0.67890625</v>
       </c>
       <c r="G2">
-        <v>0.95321875</v>
+        <v>0.87125</v>
       </c>
       <c r="H2">
-        <v>0.99953125</v>
+        <v>0.97353125</v>
       </c>
       <c r="I2">
-        <v>0.980125</v>
+        <v>0.79825</v>
       </c>
       <c r="J2">
-        <v>0.23384375</v>
+        <v>0.3094375</v>
       </c>
       <c r="K2">
-        <v>0.7735625</v>
+        <v>0.7413125</v>
       </c>
       <c r="L2">
-        <v>0.86503125</v>
+        <v>0.766375</v>
       </c>
       <c r="M2">
-        <v>0.0145</v>
+        <v>0.2113125</v>
       </c>
     </row>
     <row r="3">
@@ -1062,40 +1062,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.99953125</v>
+        <v>0.98728125</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.99825</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.9989375</v>
       </c>
       <c r="F3">
-        <v>0.50184375</v>
+        <v>0.47228125</v>
       </c>
       <c r="G3">
-        <v>0.95478125</v>
+        <v>0.90434375</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.9896875000000001</v>
       </c>
       <c r="I3">
-        <v>0.99503125</v>
+        <v>0.913625</v>
       </c>
       <c r="J3">
-        <v>0.232875</v>
+        <v>0.264625</v>
       </c>
       <c r="K3">
-        <v>0.7716875</v>
+        <v>0.72765625</v>
       </c>
       <c r="L3">
-        <v>0.866</v>
+        <v>0.7960625</v>
       </c>
       <c r="M3">
-        <v>0.00753125</v>
+        <v>0.10196875</v>
       </c>
     </row>
     <row r="4">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.9995937499999999</v>
+        <v>0.99796875</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99825</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1117,28 +1117,28 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.472625</v>
+        <v>0.4210625</v>
       </c>
       <c r="G4">
-        <v>0.9545625</v>
+        <v>0.91853125</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.99796875</v>
       </c>
       <c r="I4">
-        <v>0.99634375</v>
+        <v>0.95478125</v>
       </c>
       <c r="J4">
-        <v>0.23203125</v>
+        <v>0.2535</v>
       </c>
       <c r="K4">
-        <v>0.77140625</v>
+        <v>0.73040625</v>
       </c>
       <c r="L4">
-        <v>0.86590625</v>
+        <v>0.80603125</v>
       </c>
       <c r="M4">
-        <v>0.00646875</v>
+        <v>0.056625</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.99953125</v>
+        <v>0.9976874999999999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.9989375</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1160,28 +1160,28 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4440625</v>
+        <v>0.361625</v>
       </c>
       <c r="G5">
-        <v>0.9545312500000001</v>
+        <v>0.92521875</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.99909375</v>
       </c>
       <c r="I5">
-        <v>0.996875</v>
+        <v>0.97925</v>
       </c>
       <c r="J5">
-        <v>0.231875</v>
+        <v>0.24215625</v>
       </c>
       <c r="K5">
-        <v>0.7711875</v>
+        <v>0.727</v>
       </c>
       <c r="L5">
-        <v>0.86596875</v>
+        <v>0.812125</v>
       </c>
       <c r="M5">
-        <v>0.00603125</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="6">
@@ -1191,40 +1191,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.665125</v>
+        <v>0.67890625</v>
       </c>
       <c r="C6">
-        <v>0.50184375</v>
+        <v>0.47228125</v>
       </c>
       <c r="D6">
-        <v>0.472625</v>
+        <v>0.4210625</v>
       </c>
       <c r="E6">
-        <v>0.4440625</v>
+        <v>0.361625</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.51675</v>
+        <v>0.41653125</v>
       </c>
       <c r="H6">
-        <v>0.45228125</v>
+        <v>0.3505</v>
       </c>
       <c r="I6">
-        <v>0.09434375</v>
+        <v>0.0574375</v>
       </c>
       <c r="J6">
-        <v>0.543875</v>
+        <v>0.59953125</v>
       </c>
       <c r="K6">
-        <v>0.52753125</v>
+        <v>0.5194375</v>
       </c>
       <c r="L6">
-        <v>0.46809375</v>
+        <v>0.42321875</v>
       </c>
       <c r="M6">
-        <v>0.737125</v>
+        <v>0.85246875</v>
       </c>
     </row>
     <row r="7">
@@ -1234,40 +1234,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.95321875</v>
+        <v>0.87125</v>
       </c>
       <c r="C7">
-        <v>0.95478125</v>
+        <v>0.90434375</v>
       </c>
       <c r="D7">
-        <v>0.9545625</v>
+        <v>0.91853125</v>
       </c>
       <c r="E7">
-        <v>0.9545312500000001</v>
+        <v>0.92521875</v>
       </c>
       <c r="F7">
-        <v>0.51675</v>
+        <v>0.41653125</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.95465625</v>
+        <v>0.92521875</v>
       </c>
       <c r="I7">
-        <v>0.94553125</v>
+        <v>0.91475</v>
       </c>
       <c r="J7">
-        <v>0.26228125</v>
+        <v>0.26828125</v>
       </c>
       <c r="K7">
-        <v>0.75184375</v>
+        <v>0.7048125</v>
       </c>
       <c r="L7">
-        <v>0.83175</v>
+        <v>0.7793125</v>
       </c>
       <c r="M7">
-        <v>0.05378125</v>
+        <v>0.1001875</v>
       </c>
     </row>
     <row r="8">
@@ -1277,40 +1277,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.99953125</v>
+        <v>0.97353125</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.9896875000000001</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.99796875</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.99909375</v>
       </c>
       <c r="F8">
-        <v>0.45228125</v>
+        <v>0.3505</v>
       </c>
       <c r="G8">
-        <v>0.95465625</v>
+        <v>0.92521875</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.9961875</v>
+        <v>0.9765</v>
       </c>
       <c r="J8">
-        <v>0.23171875</v>
+        <v>0.23921875</v>
       </c>
       <c r="K8">
-        <v>0.771375</v>
+        <v>0.72021875</v>
       </c>
       <c r="L8">
-        <v>0.86671875</v>
+        <v>0.81103125</v>
       </c>
       <c r="M8">
-        <v>0.00653125</v>
+        <v>0.03653125</v>
       </c>
     </row>
     <row r="9">
@@ -1320,40 +1320,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.980125</v>
+        <v>0.79825</v>
       </c>
       <c r="C9">
-        <v>0.99503125</v>
+        <v>0.913625</v>
       </c>
       <c r="D9">
-        <v>0.99634375</v>
+        <v>0.95478125</v>
       </c>
       <c r="E9">
-        <v>0.996875</v>
+        <v>0.97925</v>
       </c>
       <c r="F9">
-        <v>0.09434375</v>
+        <v>0.0574375</v>
       </c>
       <c r="G9">
-        <v>0.94553125</v>
+        <v>0.91475</v>
       </c>
       <c r="H9">
-        <v>0.9961875</v>
+        <v>0.9765</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.23596875</v>
+        <v>0.23384375</v>
       </c>
       <c r="K9">
-        <v>0.755375</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L9">
-        <v>0.85990625</v>
+        <v>0.80475</v>
       </c>
       <c r="M9">
-        <v>0.0041875</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="10">
@@ -1363,40 +1363,40 @@
         </is>
       </c>
       <c r="B10">
+        <v>0.3094375</v>
+      </c>
+      <c r="C10">
+        <v>0.264625</v>
+      </c>
+      <c r="D10">
+        <v>0.2535</v>
+      </c>
+      <c r="E10">
+        <v>0.24215625</v>
+      </c>
+      <c r="F10">
+        <v>0.59953125</v>
+      </c>
+      <c r="G10">
+        <v>0.26828125</v>
+      </c>
+      <c r="H10">
+        <v>0.23921875</v>
+      </c>
+      <c r="I10">
         <v>0.23384375</v>
       </c>
-      <c r="C10">
-        <v>0.232875</v>
-      </c>
-      <c r="D10">
-        <v>0.23203125</v>
-      </c>
-      <c r="E10">
-        <v>0.231875</v>
-      </c>
-      <c r="F10">
-        <v>0.543875</v>
-      </c>
-      <c r="G10">
-        <v>0.26228125</v>
-      </c>
-      <c r="H10">
-        <v>0.23171875</v>
-      </c>
-      <c r="I10">
-        <v>0.23596875</v>
-      </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.36034375</v>
+        <v>0.3850625</v>
       </c>
       <c r="L10">
-        <v>0.31359375</v>
+        <v>0.336</v>
       </c>
       <c r="M10">
-        <v>0.7655</v>
+        <v>0.75790625</v>
       </c>
     </row>
     <row r="11">
@@ -1406,40 +1406,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.7735625</v>
+        <v>0.7413125</v>
       </c>
       <c r="C11">
-        <v>0.7716875</v>
+        <v>0.72765625</v>
       </c>
       <c r="D11">
-        <v>0.77140625</v>
+        <v>0.73040625</v>
       </c>
       <c r="E11">
-        <v>0.7711875</v>
+        <v>0.727</v>
       </c>
       <c r="F11">
-        <v>0.52753125</v>
+        <v>0.5194375</v>
       </c>
       <c r="G11">
-        <v>0.75184375</v>
+        <v>0.7048125</v>
       </c>
       <c r="H11">
-        <v>0.771375</v>
+        <v>0.72021875</v>
       </c>
       <c r="I11">
-        <v>0.755375</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J11">
-        <v>0.36034375</v>
+        <v>0.3850625</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.703875</v>
+        <v>0.6559375</v>
       </c>
       <c r="M11">
-        <v>0.23746875</v>
+        <v>0.31640625</v>
       </c>
     </row>
     <row r="12">
@@ -1449,40 +1449,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.86503125</v>
+        <v>0.766375</v>
       </c>
       <c r="C12">
-        <v>0.866</v>
+        <v>0.7960625</v>
       </c>
       <c r="D12">
-        <v>0.86590625</v>
+        <v>0.80603125</v>
       </c>
       <c r="E12">
-        <v>0.86596875</v>
+        <v>0.812125</v>
       </c>
       <c r="F12">
-        <v>0.46809375</v>
+        <v>0.42321875</v>
       </c>
       <c r="G12">
-        <v>0.83175</v>
+        <v>0.7793125</v>
       </c>
       <c r="H12">
-        <v>0.86671875</v>
+        <v>0.81103125</v>
       </c>
       <c r="I12">
-        <v>0.85990625</v>
+        <v>0.80475</v>
       </c>
       <c r="J12">
-        <v>0.31359375</v>
+        <v>0.336</v>
       </c>
       <c r="K12">
-        <v>0.703875</v>
+        <v>0.6559375</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.14284375</v>
+        <v>0.2075625</v>
       </c>
     </row>
     <row r="13">
@@ -1492,37 +1492,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.0145</v>
+        <v>0.2113125</v>
       </c>
       <c r="C13">
-        <v>0.00753125</v>
+        <v>0.10196875</v>
       </c>
       <c r="D13">
-        <v>0.00646875</v>
+        <v>0.056625</v>
       </c>
       <c r="E13">
-        <v>0.00603125</v>
+        <v>0.0335</v>
       </c>
       <c r="F13">
-        <v>0.737125</v>
+        <v>0.85246875</v>
       </c>
       <c r="G13">
-        <v>0.05378125</v>
+        <v>0.1001875</v>
       </c>
       <c r="H13">
-        <v>0.00653125</v>
+        <v>0.03653125</v>
       </c>
       <c r="I13">
-        <v>0.0041875</v>
+        <v>0.0075</v>
       </c>
       <c r="J13">
-        <v>0.7655</v>
+        <v>0.75790625</v>
       </c>
       <c r="K13">
-        <v>0.23746875</v>
+        <v>0.31640625</v>
       </c>
       <c r="L13">
-        <v>0.14284375</v>
+        <v>0.2075625</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1613,37 +1613,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0004687500000000178</v>
+        <v>0.01271875</v>
       </c>
       <c r="D2">
-        <v>0.0004062500000000524</v>
+        <v>0.00203125000000004</v>
       </c>
       <c r="E2">
-        <v>0.0004687500000000178</v>
+        <v>0.002312500000000051</v>
       </c>
       <c r="F2">
-        <v>0.334875</v>
+        <v>0.32109375</v>
       </c>
       <c r="G2">
-        <v>0.04678125</v>
+        <v>0.12875</v>
       </c>
       <c r="H2">
-        <v>0.0004687500000000178</v>
+        <v>0.02646875000000004</v>
       </c>
       <c r="I2">
-        <v>0.01987499999999998</v>
+        <v>0.20175</v>
       </c>
       <c r="J2">
-        <v>0.76615625</v>
+        <v>0.6905625</v>
       </c>
       <c r="K2">
-        <v>0.2264375</v>
+        <v>0.2586875</v>
       </c>
       <c r="L2">
-        <v>0.13496875</v>
+        <v>0.233625</v>
       </c>
       <c r="M2">
-        <v>0.9855</v>
+        <v>0.7886875</v>
       </c>
     </row>
     <row r="3">
@@ -1653,40 +1653,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0004687500000000178</v>
+        <v>0.01271875</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.001750000000000029</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.001062499999999966</v>
       </c>
       <c r="F3">
-        <v>0.49815625</v>
+        <v>0.52771875</v>
       </c>
       <c r="G3">
-        <v>0.04521874999999997</v>
+        <v>0.09565625</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01031249999999995</v>
       </c>
       <c r="I3">
-        <v>0.004968749999999966</v>
+        <v>0.08637499999999998</v>
       </c>
       <c r="J3">
-        <v>0.7671250000000001</v>
+        <v>0.735375</v>
       </c>
       <c r="K3">
-        <v>0.2283125</v>
+        <v>0.27234375</v>
       </c>
       <c r="L3">
-        <v>0.134</v>
+        <v>0.2039375</v>
       </c>
       <c r="M3">
-        <v>0.99246875</v>
+        <v>0.8980312500000001</v>
       </c>
     </row>
     <row r="4">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0004062500000000524</v>
+        <v>0.00203125000000004</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.001750000000000029</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5273749999999999</v>
+        <v>0.5789375</v>
       </c>
       <c r="G4">
-        <v>0.04543750000000002</v>
+        <v>0.08146874999999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00203125000000004</v>
       </c>
       <c r="I4">
-        <v>0.003656250000000028</v>
+        <v>0.04521874999999997</v>
       </c>
       <c r="J4">
-        <v>0.76796875</v>
+        <v>0.7464999999999999</v>
       </c>
       <c r="K4">
-        <v>0.22859375</v>
+        <v>0.26959375</v>
       </c>
       <c r="L4">
-        <v>0.13409375</v>
+        <v>0.19396875</v>
       </c>
       <c r="M4">
-        <v>0.99353125</v>
+        <v>0.943375</v>
       </c>
     </row>
     <row r="5">
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.0004687500000000178</v>
+        <v>0.002312500000000051</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.001062499999999966</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1751,28 +1751,28 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5559375</v>
+        <v>0.638375</v>
       </c>
       <c r="G5">
-        <v>0.04546874999999995</v>
+        <v>0.07478125000000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0009062499999999973</v>
       </c>
       <c r="I5">
-        <v>0.003125000000000044</v>
+        <v>0.02075000000000005</v>
       </c>
       <c r="J5">
-        <v>0.7681249999999999</v>
+        <v>0.75784375</v>
       </c>
       <c r="K5">
-        <v>0.2288125</v>
+        <v>0.273</v>
       </c>
       <c r="L5">
-        <v>0.13403125</v>
+        <v>0.187875</v>
       </c>
       <c r="M5">
-        <v>0.99396875</v>
+        <v>0.9665</v>
       </c>
     </row>
     <row r="6">
@@ -1782,40 +1782,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.334875</v>
+        <v>0.32109375</v>
       </c>
       <c r="C6">
-        <v>0.49815625</v>
+        <v>0.52771875</v>
       </c>
       <c r="D6">
-        <v>0.5273749999999999</v>
+        <v>0.5789375</v>
       </c>
       <c r="E6">
-        <v>0.5559375</v>
+        <v>0.638375</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.48325</v>
+        <v>0.58346875</v>
       </c>
       <c r="H6">
-        <v>0.54771875</v>
+        <v>0.6495</v>
       </c>
       <c r="I6">
-        <v>0.9056562500000001</v>
+        <v>0.9425625</v>
       </c>
       <c r="J6">
-        <v>0.456125</v>
+        <v>0.40046875</v>
       </c>
       <c r="K6">
-        <v>0.47246875</v>
+        <v>0.4805625</v>
       </c>
       <c r="L6">
-        <v>0.53190625</v>
+        <v>0.57678125</v>
       </c>
       <c r="M6">
-        <v>0.262875</v>
+        <v>0.14753125</v>
       </c>
     </row>
     <row r="7">
@@ -1825,40 +1825,40 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.04678125</v>
+        <v>0.12875</v>
       </c>
       <c r="C7">
-        <v>0.04521874999999997</v>
+        <v>0.09565625</v>
       </c>
       <c r="D7">
-        <v>0.04543750000000002</v>
+        <v>0.08146874999999998</v>
       </c>
       <c r="E7">
-        <v>0.04546874999999995</v>
+        <v>0.07478125000000002</v>
       </c>
       <c r="F7">
-        <v>0.48325</v>
+        <v>0.58346875</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.04534375000000002</v>
+        <v>0.07478125000000002</v>
       </c>
       <c r="I7">
-        <v>0.05446874999999995</v>
+        <v>0.08525000000000005</v>
       </c>
       <c r="J7">
-        <v>0.73771875</v>
+        <v>0.73171875</v>
       </c>
       <c r="K7">
-        <v>0.24815625</v>
+        <v>0.2951875</v>
       </c>
       <c r="L7">
-        <v>0.16825</v>
+        <v>0.2206875</v>
       </c>
       <c r="M7">
-        <v>0.94621875</v>
+        <v>0.8998125</v>
       </c>
     </row>
     <row r="8">
@@ -1868,40 +1868,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.0004687500000000178</v>
+        <v>0.02646875000000004</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.01031249999999995</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.00203125000000004</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0009062499999999973</v>
       </c>
       <c r="F8">
-        <v>0.54771875</v>
+        <v>0.6495</v>
       </c>
       <c r="G8">
-        <v>0.04534375000000002</v>
+        <v>0.07478125000000002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003812499999999996</v>
+        <v>0.02349999999999997</v>
       </c>
       <c r="J8">
-        <v>0.76828125</v>
+        <v>0.76078125</v>
       </c>
       <c r="K8">
-        <v>0.228625</v>
+        <v>0.27978125</v>
       </c>
       <c r="L8">
-        <v>0.13328125</v>
+        <v>0.18896875</v>
       </c>
       <c r="M8">
-        <v>0.99346875</v>
+        <v>0.96346875</v>
       </c>
     </row>
     <row r="9">
@@ -1911,40 +1911,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.01987499999999998</v>
+        <v>0.20175</v>
       </c>
       <c r="C9">
-        <v>0.004968749999999966</v>
+        <v>0.08637499999999998</v>
       </c>
       <c r="D9">
-        <v>0.003656250000000028</v>
+        <v>0.04521874999999997</v>
       </c>
       <c r="E9">
-        <v>0.003125000000000044</v>
+        <v>0.02075000000000005</v>
       </c>
       <c r="F9">
-        <v>0.9056562500000001</v>
+        <v>0.9425625</v>
       </c>
       <c r="G9">
-        <v>0.05446874999999995</v>
+        <v>0.08525000000000005</v>
       </c>
       <c r="H9">
-        <v>0.003812499999999996</v>
+        <v>0.02349999999999997</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7640312499999999</v>
+        <v>0.76615625</v>
       </c>
       <c r="K9">
-        <v>0.244625</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="L9">
-        <v>0.14009375</v>
+        <v>0.19525</v>
       </c>
       <c r="M9">
-        <v>0.9958125</v>
+        <v>0.9925</v>
       </c>
     </row>
     <row r="10">
@@ -1954,40 +1954,40 @@
         </is>
       </c>
       <c r="B10">
+        <v>0.6905625</v>
+      </c>
+      <c r="C10">
+        <v>0.735375</v>
+      </c>
+      <c r="D10">
+        <v>0.7464999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.75784375</v>
+      </c>
+      <c r="F10">
+        <v>0.40046875</v>
+      </c>
+      <c r="G10">
+        <v>0.73171875</v>
+      </c>
+      <c r="H10">
+        <v>0.76078125</v>
+      </c>
+      <c r="I10">
         <v>0.76615625</v>
-      </c>
-      <c r="C10">
-        <v>0.7671250000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.76796875</v>
-      </c>
-      <c r="E10">
-        <v>0.7681249999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.456125</v>
-      </c>
-      <c r="G10">
-        <v>0.73771875</v>
-      </c>
-      <c r="H10">
-        <v>0.76828125</v>
-      </c>
-      <c r="I10">
-        <v>0.7640312499999999</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.63965625</v>
+        <v>0.6149375</v>
       </c>
       <c r="L10">
-        <v>0.68640625</v>
+        <v>0.6639999999999999</v>
       </c>
       <c r="M10">
-        <v>0.2345</v>
+        <v>0.24209375</v>
       </c>
     </row>
     <row r="11">
@@ -1997,40 +1997,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.2264375</v>
+        <v>0.2586875</v>
       </c>
       <c r="C11">
-        <v>0.2283125</v>
+        <v>0.27234375</v>
       </c>
       <c r="D11">
-        <v>0.22859375</v>
+        <v>0.26959375</v>
       </c>
       <c r="E11">
-        <v>0.2288125</v>
+        <v>0.273</v>
       </c>
       <c r="F11">
-        <v>0.47246875</v>
+        <v>0.4805625</v>
       </c>
       <c r="G11">
-        <v>0.24815625</v>
+        <v>0.2951875</v>
       </c>
       <c r="H11">
-        <v>0.228625</v>
+        <v>0.27978125</v>
       </c>
       <c r="I11">
-        <v>0.244625</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="J11">
-        <v>0.63965625</v>
+        <v>0.6149375</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.296125</v>
+        <v>0.3440625</v>
       </c>
       <c r="M11">
-        <v>0.76253125</v>
+        <v>0.68359375</v>
       </c>
     </row>
     <row r="12">
@@ -2040,40 +2040,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.13496875</v>
+        <v>0.233625</v>
       </c>
       <c r="C12">
-        <v>0.134</v>
+        <v>0.2039375</v>
       </c>
       <c r="D12">
-        <v>0.13409375</v>
+        <v>0.19396875</v>
       </c>
       <c r="E12">
-        <v>0.13403125</v>
+        <v>0.187875</v>
       </c>
       <c r="F12">
-        <v>0.53190625</v>
+        <v>0.57678125</v>
       </c>
       <c r="G12">
-        <v>0.16825</v>
+        <v>0.2206875</v>
       </c>
       <c r="H12">
-        <v>0.13328125</v>
+        <v>0.18896875</v>
       </c>
       <c r="I12">
-        <v>0.14009375</v>
+        <v>0.19525</v>
       </c>
       <c r="J12">
-        <v>0.68640625</v>
+        <v>0.6639999999999999</v>
       </c>
       <c r="K12">
-        <v>0.296125</v>
+        <v>0.3440625</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8571562500000001</v>
+        <v>0.7924375</v>
       </c>
     </row>
     <row r="13">
@@ -2083,37 +2083,37 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.9855</v>
+        <v>0.7886875</v>
       </c>
       <c r="C13">
-        <v>0.99246875</v>
+        <v>0.8980312500000001</v>
       </c>
       <c r="D13">
-        <v>0.99353125</v>
+        <v>0.943375</v>
       </c>
       <c r="E13">
-        <v>0.99396875</v>
+        <v>0.9665</v>
       </c>
       <c r="F13">
-        <v>0.262875</v>
+        <v>0.14753125</v>
       </c>
       <c r="G13">
-        <v>0.94621875</v>
+        <v>0.8998125</v>
       </c>
       <c r="H13">
-        <v>0.99346875</v>
+        <v>0.96346875</v>
       </c>
       <c r="I13">
-        <v>0.9958125</v>
+        <v>0.9925</v>
       </c>
       <c r="J13">
-        <v>0.2345</v>
+        <v>0.24209375</v>
       </c>
       <c r="K13">
-        <v>0.76253125</v>
+        <v>0.68359375</v>
       </c>
       <c r="L13">
-        <v>0.8571562500000001</v>
+        <v>0.7924375</v>
       </c>
       <c r="M13">
         <v>0</v>

--- a/Panels/parameter_estimates_Omega_Abundance_season.xlsx
+++ b/Panels/parameter_estimates_Omega_Abundance_season.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -452,7 +452,7 @@
         <v>0.5171033923524251</v>
       </c>
       <c r="J2">
-        <v>-0.3837685864878504</v>
+        <v>-0.3837685864878505</v>
       </c>
       <c r="K2">
         <v>0.44225587763457</v>
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -489,19 +489,19 @@
         <v>0.7706680555155564</v>
       </c>
       <c r="H3">
-        <v>0.9396888591955141</v>
+        <v>0.9396888591955142</v>
       </c>
       <c r="I3">
         <v>0.6707680567139025</v>
       </c>
       <c r="J3">
-        <v>-0.4396800556367333</v>
+        <v>-0.4396800556367334</v>
       </c>
       <c r="K3">
         <v>0.4307154144697255</v>
       </c>
       <c r="L3">
-        <v>0.5606169495928069</v>
+        <v>0.560616949592807</v>
       </c>
       <c r="M3">
         <v>-0.694589904008762</v>
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -529,7 +529,7 @@
         <v>-0.06537514626891817</v>
       </c>
       <c r="G4">
-        <v>0.7789955203191939</v>
+        <v>0.778995520319194</v>
       </c>
       <c r="H4">
         <v>0.9610028891715672</v>
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -649,7 +649,7 @@
         <v>0.7706680555155564</v>
       </c>
       <c r="D7">
-        <v>0.7789955203191939</v>
+        <v>0.778995520319194</v>
       </c>
       <c r="E7">
         <v>0.7842335193964111</v>
@@ -682,14 +682,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
         <v>0.8839228816467368</v>
       </c>
       <c r="C8">
-        <v>0.9396888591955141</v>
+        <v>0.9396888591955142</v>
       </c>
       <c r="D8">
         <v>0.9610028891715672</v>
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -768,14 +768,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
-        <v>-0.3837685864878504</v>
+        <v>-0.3837685864878505</v>
       </c>
       <c r="C10">
-        <v>-0.4396800556367333</v>
+        <v>-0.4396800556367334</v>
       </c>
       <c r="D10">
         <v>-0.4411896936846352</v>
@@ -811,14 +811,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
         <v>0.44225587763457</v>
       </c>
       <c r="C11">
-        <v>0.4307154144697255</v>
+        <v>0.4307154144697254</v>
       </c>
       <c r="D11">
         <v>0.4336629460264267</v>
@@ -854,14 +854,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
         <v>0.5177117130660854</v>
       </c>
       <c r="C12">
-        <v>0.5606169495928069</v>
+        <v>0.560616949592807</v>
       </c>
       <c r="D12">
         <v>0.5609787404672795</v>
@@ -897,7 +897,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1028,7 +1028,7 @@
         <v>0.99796875</v>
       </c>
       <c r="E2">
-        <v>0.9976874999999999</v>
+        <v>0.9976875</v>
       </c>
       <c r="F2">
         <v>0.67890625</v>
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,11 +1144,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.9976874999999999</v>
+        <v>0.9976875</v>
       </c>
       <c r="C5">
         <v>0.9989375</v>
@@ -1187,7 +1187,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1230,7 +1230,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1273,7 +1273,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1316,7 +1316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1347,7 +1347,7 @@
         <v>0.23384375</v>
       </c>
       <c r="K9">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="L9">
         <v>0.80475</v>
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1427,7 +1427,7 @@
         <v>0.72021875</v>
       </c>
       <c r="I11">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="J11">
         <v>0.3850625</v>
@@ -1445,7 +1445,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1778,7 +1778,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1852,7 +1852,7 @@
         <v>0.73171875</v>
       </c>
       <c r="K7">
-        <v>0.2951875</v>
+        <v>0.2951875000000001</v>
       </c>
       <c r="L7">
         <v>0.2206875</v>
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1907,7 +1907,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1944,13 +1944,13 @@
         <v>0.19525</v>
       </c>
       <c r="M9">
-        <v>0.9925</v>
+        <v>0.9925000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1993,7 +1993,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -2012,7 +2012,7 @@
         <v>0.4805625</v>
       </c>
       <c r="G11">
-        <v>0.2951875</v>
+        <v>0.2951875000000001</v>
       </c>
       <c r="H11">
         <v>0.27978125</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3440625</v>
+        <v>0.3440625000000001</v>
       </c>
       <c r="M11">
         <v>0.68359375</v>
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2067,7 +2067,7 @@
         <v>0.6639999999999999</v>
       </c>
       <c r="K12">
-        <v>0.3440625</v>
+        <v>0.3440625000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -2104,7 +2104,7 @@
         <v>0.96346875</v>
       </c>
       <c r="I13">
-        <v>0.9925</v>
+        <v>0.9925000000000001</v>
       </c>
       <c r="J13">
         <v>0.24209375</v>
